--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B703B-7959-4FB6-8185-B75DB49A263B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05284D67-2631-495C-8317-A7E93AD0AD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sounders" sheetId="7" r:id="rId1"/>
-    <sheet name="Czech" sheetId="8" r:id="rId2"/>
+    <sheet name="Germany" sheetId="7" r:id="rId1"/>
+    <sheet name="Belgium" sheetId="9" r:id="rId2"/>
+    <sheet name="Czech" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Wg</t>
   </si>
@@ -79,6 +80,12 @@
   </si>
   <si>
     <t>NGC-3477/T1739</t>
+  </si>
+  <si>
+    <t>Belgium Market</t>
+  </si>
+  <si>
+    <t>NGC-3478/T2269</t>
   </si>
 </sst>
 </file>
@@ -503,7 +510,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,10 +603,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA4856-7156-43E1-9547-9AFAE662EBF4}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A572B-4ECC-4898-9438-06611BDE0241}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05284D67-2631-495C-8317-A7E93AD0AD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5DF81D-AD8F-45E0-9642-647AB93EEF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="9" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Wg</t>
   </si>
@@ -86,6 +87,12 @@
   </si>
   <si>
     <t>NGC-3478/T2269</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2348</t>
   </si>
 </sst>
 </file>
@@ -606,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA4856-7156-43E1-9547-9AFAE662EBF4}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,4 +801,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FCEEE5-CFF5-46CE-AF90-A5465979BBA9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5DF81D-AD8F-45E0-9642-647AB93EEF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E4FFD-A944-4BEC-B449-39943F16D71E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="9" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -93,6 +94,12 @@
   </si>
   <si>
     <t>NGC-3476/T2348</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2412</t>
   </si>
 </sst>
 </file>
@@ -614,7 +621,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FCEEE5-CFF5-46CE-AF90-A5465979BBA9}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -898,4 +905,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB65138-4378-4733-B2F8-6601CE514C4C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E4FFD-A944-4BEC-B449-39943F16D71E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F900E2-F316-4E9B-AFE2-5773A5300EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>Portugal Market</t>
   </si>
   <si>
-    <t>NGC-3479/T2412</t>
+    <t>NGC-3479/T2412/T2513</t>
   </si>
 </sst>
 </file>
@@ -912,13 +912,13 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
   </cols>

--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F900E2-F316-4E9B-AFE2-5773A5300EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433A6E7F-A921-4F27-A282-0A5757AFC556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>NGC-3479/T2412/T2513</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3226</t>
   </si>
 </sst>
 </file>
@@ -911,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB65138-4378-4733-B2F8-6601CE514C4C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,4 +1009,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E02AE98-2FA8-4A0D-A04C-0EF874475DBE}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433A6E7F-A921-4F27-A282-0A5757AFC556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3FFEB-2B93-4C2E-B60C-67D859428574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
+    <sheet name="Italy" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t>NGC-2930/T3226</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2160</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E02AE98-2FA8-4A0D-A04C-0EF874475DBE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,4 +1113,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE524215-1DC2-4EA5-B561-C552D036E1C5}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3FFEB-2B93-4C2E-B60C-67D859428574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F034F45-97E8-4A0B-A8B1-5CEEB625DA28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
+    <sheet name="Spain" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>NGC-3145/T2160</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2038</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE524215-1DC2-4EA5-B561-C552D036E1C5}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,4 +1217,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D114324F-92AD-4E20-A7C3-C6B09CA28E5B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F034F45-97E8-4A0B-A8B1-5CEEB625DA28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681BCFA3-A147-4A76-AAB8-96933DF1295B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>NGC-3103/T2038</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3302</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D114324F-92AD-4E20-A7C3-C6B09CA28E5B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,4 +1320,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5950D4-F9CC-4E39-9367-BF2932FA44D6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681BCFA3-A147-4A76-AAB8-96933DF1295B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B302B5D8-5962-413F-9F47-6F49BB52D45C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -128,6 +129,12 @@
   </si>
   <si>
     <t>NGC-3191/T3302</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2425</t>
   </si>
 </sst>
 </file>
@@ -644,6 +651,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A3B4A-364A-4F7B-9DA8-ACD342C27294}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA4856-7156-43E1-9547-9AFAE662EBF4}">
   <dimension ref="A1:D10"/>
@@ -1326,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5950D4-F9CC-4E39-9367-BF2932FA44D6}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B302B5D8-5962-413F-9F47-6F49BB52D45C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF194E-A9B7-4BF2-A990-9CA8A2DCB47C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
+    <sheet name="Greece" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>NGC-3139/T2425</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3171</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -655,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A3B4A-364A-4F7B-9DA8-ACD342C27294}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,6 +709,102 @@
       </c>
       <c r="B4" t="s">
         <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7A32B0-8121-4230-BF14-BF5A584BC272}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF194E-A9B7-4BF2-A990-9CA8A2DCB47C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E15EA1-915F-46E3-BAE4-0F34F24A1C8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
     <sheet name="Greece" sheetId="17" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
+    <sheet name="Austria" sheetId="19" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -142,6 +145,21 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-4320/T2276</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2756</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -758,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7A32B0-8121-4230-BF14-BF5A584BC272}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -805,6 +823,297 @@
       </c>
       <c r="B4" t="s">
         <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A039FAA-D81B-4504-98A5-40C0250122FC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709F765-9092-428C-8A59-D8C02FFE7048}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3392B867-F40D-440F-91E6-4AA913763EB6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E15EA1-915F-46E3-BAE4-0F34F24A1C8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC1D34-C1B1-47D6-9F62-F07FCE7DA52C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
     <sheet name="Austria" sheetId="19" r:id="rId13"/>
     <sheet name="Denmark" sheetId="20" r:id="rId14"/>
+    <sheet name="Russia" sheetId="22" r:id="rId15"/>
+    <sheet name="Finland" sheetId="23" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="24" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="44">
   <si>
     <t>Wg</t>
   </si>
@@ -160,6 +163,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T3302</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2947</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2996</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -872,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A039FAA-D81B-4504-98A5-40C0250122FC}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1159,6 +1180,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F3F19C-7043-4716-B0D2-D55230EB0E0E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A712BF-E1AE-4DE8-8567-AF080571EAD7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA22AA-B44D-4994-8F4C-A810C79A7CA5}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA4856-7156-43E1-9547-9AFAE662EBF4}">
   <dimension ref="A1:D10"/>

--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC1D34-C1B1-47D6-9F62-F07FCE7DA52C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AB5068-AB96-48D5-8711-80F661CAAABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="22" r:id="rId15"/>
     <sheet name="Finland" sheetId="23" r:id="rId16"/>
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
+    <sheet name="Norway" sheetId="25" r:id="rId18"/>
+    <sheet name="Poland" sheetId="26" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -181,6 +183,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3079</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3108</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA22AA-B44D-4994-8F4C-A810C79A7CA5}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1430,6 +1444,198 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1EE66-47EA-4037-8DBF-5B30BA62CDC6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0463E8-1EF2-4145-BD88-C2E163DD2B82}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Sounder_PFI.xlsx
+++ b/Test Data/Gallery_Sounder_PFI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AB5068-AB96-48D5-8711-80F661CAAABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5690B-4008-4812-91AB-C6E0A71051BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
     <sheet name="Norway" sheetId="25" r:id="rId18"/>
     <sheet name="Poland" sheetId="26" r:id="rId19"/>
+    <sheet name="UK" sheetId="27" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="50">
   <si>
     <t>Wg</t>
   </si>
@@ -195,6 +196,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3347</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1486,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1EE66-47EA-4037-8DBF-5B30BA62CDC6}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1771,6 +1778,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8275B8-AAC2-4890-8C10-DA97A89E9186}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A572B-4ECC-4898-9438-06611BDE0241}">
   <dimension ref="A1:D10"/>
